--- a/Data from runs.xlsx
+++ b/Data from runs.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$L$3:$N$7</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>MeanData:</t>
   </si>
@@ -47,105 +50,6 @@
     <t xml:space="preserve"> 0.11575 0.11575 0.11575 0.11575]</t>
   </si>
   <si>
-    <t>DataArray:</t>
-  </si>
-  <si>
-    <t>[[0.1325 0.1325 0.1325 0.1325 0.1325 0.1325 0.13   0.13   0.1225 0.1225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.1225 0.1225 0.1225 0.1225 0.1225 0.1225 0.1225 0.1225 0.1225 0.1225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.1225 0.1225 0.1175 0.1175 0.1175 0.1175 0.1175 0.1175 0.1175 0.1175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.1175 0.1175 0.1175 0.1175 0.1175 0.1175 0.1175 0.1175 0.1175 0.1175]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.15   0.15   0.1225 0.1225 0.1225 0.12   0.12   0.12   0.12   0.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.1175 0.1175 0.1175 0.1175 0.1175 0.115  0.115  0.115  0.115  0.115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.115  0.115  0.115  0.115  0.115  0.115  0.115  0.115  0.115  0.115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.115  0.115  0.115  0.115  0.115  0.1125 0.1125 0.1125 0.1125 0.1125]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.155  0.155  0.1525 0.1475 0.13   0.13   0.13   0.13   0.1225 0.1225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.1225 0.1225 0.1225 0.1225 0.12   0.12   0.12   0.12   0.12   0.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.12   0.12   0.12   0.12   0.12   0.12   0.12   0.12   0.12   0.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.12   0.12   0.12   0.12   0.12   0.12   0.12   0.12   0.12   0.12  ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.39   0.145  0.145  0.145  0.145  0.14   0.135  0.135  0.125  0.125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.125  0.1225 0.1225 0.1225 0.1225 0.1225 0.1225 0.1225 0.1225 0.1225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.1225 0.1225 0.12   0.12   0.12   0.12   0.12   0.12   0.12   0.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.12   0.12   0.12   0.12   0.12   0.12   0.115  0.115  0.115  0.115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.115  0.1125 0.1125 0.1125 0.1125 0.1125 0.1125 0.11   0.11   0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.11   0.11   0.11   0.11   0.11   0.11   0.11   0.11   0.11   0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.11   0.11   0.11   0.11   0.11   0.11   0.11   0.11   0.11   0.11  ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.255  0.1375 0.1375 0.125  0.1225 0.12   0.12   0.1175 0.1175 0.1175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.115  0.115  0.11   0.11   0.11   0.11   0.11   0.11   0.11   0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.14   0.14   0.14   0.14   0.1225 0.1225 0.1225 0.1225 0.1225 0.115</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.14   0.14   0.14   0.14   0.14   0.14   0.14   0.14   0.13   0.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.13   0.13   0.1275 0.1275 0.1275 0.1275 0.1275 0.1275 0.125  0.125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.125  0.125  0.1225 0.12   0.1175 0.1175 0.1175 0.1175 0.1175 0.1175</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.15   0.15   0.135  0.135  0.135  0.135  0.135  0.135  0.135  0.135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.135  0.135  0.135  0.135  0.1325 0.1325 0.1325 0.1325 0.1325 0.1325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.1325 0.1325 0.1325 0.1325 0.1325 0.1325 0.1325 0.1325 0.1325 0.1325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.1325 0.1325 0.1325 0.1325 0.1325 0.125  0.125  0.125  0.125  0.125 ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.155  0.1425 0.1425 0.1425 0.1425 0.1375 0.1375 0.1375 0.135  0.135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.1225 0.115  0.115  0.115  0.115  0.115  0.115  0.115  0.115  0.115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.115  0.115  0.115  0.115  0.115  0.115  0.115  0.115  0.115  0.115 ]]</t>
-  </si>
-  <si>
     <t>Standard Deviation: [0.07862291 0.00950329 0.00935748 0.00921954 0.00875    0.00801951</t>
   </si>
   <si>
@@ -165,6 +69,69 @@
   </si>
   <si>
     <t xml:space="preserve"> 0.00487981 0.00487981 0.00487981 0.00487981]</t>
+  </si>
+  <si>
+    <t>[0.12975 0.1255  0.123   0.1225  0.11925 0.116   0.11475 0.11475 0.11475</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.11475 0.11425 0.11375 0.11325 0.11275 0.1125  0.11225 0.11175 0.11175</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.11175 0.11175]</t>
+  </si>
+  <si>
+    <t>Standard Deviation: [0.00840015 0.0085     0.00748331 0.00766485 0.00680533 0.00390512</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.00305164 0.00305164 0.00305164 0.00305164 0.00296859 0.0030104</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.00275    0.00283945 0.0025     0.00261008 0.00336341 0.00336341</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.00336341 0.00336341]</t>
+  </si>
+  <si>
+    <t>Pop</t>
+  </si>
+  <si>
+    <t>Max Iter</t>
+  </si>
+  <si>
+    <t>[0.12875 0.12425 0.1235  0.121   0.1205  0.1185  0.11675 0.11575 0.1145</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.11425]</t>
+  </si>
+  <si>
+    <t>Standard Deviation: [0.00654313 0.00388104 0.00390512 0.00421307 0.00471699 0.00390512</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.00475    0.00388104 0.0031225  0.00317214]</t>
+  </si>
+  <si>
+    <t>[0.1195  0.11725 0.1165  0.1165  0.11575]</t>
+  </si>
+  <si>
+    <t>Standard Deviation: [0.00367423 0.0043946  0.00374166 0.00374166 0.00403887]</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>Pop_size 5 - Max_iter 40</t>
+  </si>
+  <si>
+    <t>Pop_size 10 - Max_iter 20</t>
+  </si>
+  <si>
+    <t>Pop_size 20 - Max_iter 10</t>
+  </si>
+  <si>
+    <t>Pop_size 40 - Max_iter 5</t>
   </si>
 </sst>
 </file>
@@ -220,6 +187,1261 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Final iteration Mean error value with std</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pop_size 5 - Max_iter 40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="63500">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$N$4</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.00487981</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$N$4</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.00487981</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1.0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.11575</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pop_size 40 - Max_iter 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="63500">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$N$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.00403887</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$N$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.00403887</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>2.0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.11575</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pop_size 20 - Max_iter 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="63500">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$N$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.00317214</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$N$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.00317214</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>3.0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.11425</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pop_size 10 - Max_iter 20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="63500">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$N$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.00336341</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$N$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.00336341</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>4.0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.11175</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1171121600"/>
+        <c:axId val="1171011744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1171121600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1171011744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1171011744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1171121600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.016359918200409"/>
+          <c:y val="0.255675196850394"/>
+          <c:w val="0.34427596090366"/>
+          <c:h val="0.597685039370079"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -485,285 +1707,338 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:C58"/>
+  <dimension ref="C2:AA52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="12" max="12" width="33" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>40</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4">
+        <v>0.11575000000000001</v>
+      </c>
+      <c r="N4">
+        <v>4.8798100000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:27" ht="17" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5">
+        <v>0.11575000000000001</v>
+      </c>
+      <c r="N5">
+        <v>4.03887E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:27" ht="17" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6">
+        <v>0.11425</v>
+      </c>
+      <c r="N6">
+        <v>3.1721399999999999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:27" ht="17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7">
+        <v>0.11175</v>
+      </c>
+      <c r="N7">
+        <v>3.3634099999999998E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:27" ht="17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:27" ht="17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="3:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:27" ht="17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C11" s="1" t="s">
+    <row r="11" spans="3:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+      <c r="AA11" s="1"/>
+    </row>
+    <row r="12" spans="3:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C12" s="1" t="s">
+      <c r="S12" s="1"/>
+      <c r="AA12" s="1"/>
+    </row>
+    <row r="13" spans="3:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C13" s="1" t="s">
+      <c r="S13" s="1"/>
+      <c r="AA13" s="1"/>
+    </row>
+    <row r="14" spans="3:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C14" s="1" t="s">
+      <c r="K14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="AA14" s="1"/>
+    </row>
+    <row r="15" spans="3:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C15" s="1" t="s">
+      <c r="K15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="AA15" s="1"/>
+    </row>
+    <row r="16" spans="3:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C16" s="1" t="s">
+      <c r="K16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="AA16" s="1"/>
+    </row>
+    <row r="17" spans="3:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C17" s="1" t="s">
+      <c r="K17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="AA17" s="1"/>
+    </row>
+    <row r="18" spans="3:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C18" s="1" t="s">
+      <c r="K18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="AA18" s="1"/>
+    </row>
+    <row r="19" spans="3:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="3:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="3:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="3:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="3:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="3:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="C24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="3:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="C25" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C19" s="1" t="s">
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="3:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="C26" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C20" s="1" t="s">
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="3:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="C27" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C21" s="1" t="s">
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="3:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="C28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="3:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="C29" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C22" s="1" t="s">
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="3:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="C30" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C23" s="1" t="s">
+    <row r="31" spans="3:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="C31" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C24" s="1" t="s">
+    <row r="32" spans="3:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="C32" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C25" s="1" t="s">
+    <row r="33" spans="3:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C26" s="1" t="s">
+      <c r="D35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C27" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C28" s="1" t="s">
+      <c r="D36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C38" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C39" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C29" s="1" t="s">
+    <row r="40" spans="3:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C40" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C30" s="1" t="s">
+    <row r="41" spans="3:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="3:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C42" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C31" s="1" t="s">
+    <row r="43" spans="3:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C43" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C32" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C33" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C34" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C35" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C36" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C37" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C38" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C39" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C40" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C41" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C42" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C43" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C44" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C45" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C46" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C47" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C48" s="1" t="s">
-        <v>36</v>
+    <row r="45" spans="3:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="3:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="3:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C51" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="C51" s="1"/>
     </row>
     <row r="52" spans="3:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C53" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C54" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C55" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C56" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C57" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="C58" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="L3:N7">
+    <sortState ref="L4:N7">
+      <sortCondition descending="1" ref="M3:M7"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>